--- a/APM files/138531860/138531860 IMPORT 11 RT&RP Cloud.xlsx
+++ b/APM files/138531860/138531860 IMPORT 11 RT&RP Cloud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138531860/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAACB29D-7915-3545-9ED7-7FD4FEBEC3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EB62BD-3A49-1C4B-B30E-BF96E8860F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,9 +1916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
